--- a/codes/test2.xlsx
+++ b/codes/test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projXL2PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A48488-9B2E-4CE7-9DAF-06EEE7FA85EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D3CC1-FC8C-4DAE-A8BF-C63EDFD51F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>https://drive.google.com/open?id=188NaTdWGS8ktldQGKgWk5e9hEVqQxH7j</t>
   </si>
@@ -106,9 +106,6 @@
     <t>https://drive.google.com/open?id=11ipa8eI9mqgyrD7r7JUXBbQHZW3YCnlf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1qvVhsEIVHGq0Jmxcvbnqoilzzsm7zSEQn7xlj/view?usp=share_link</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1lbHKNgLAMUoEtBgpZO94UPqVfDmJLmJP/view?usp=share_link</t>
   </si>
   <si>
@@ -122,6 +119,18 @@
   </si>
   <si>
     <t>li</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RY99Wg2xIkDxLjS9Zxy36qiejFNJX8zz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RY99Wg2xIkDxLjS9Zxy36qiejstgwFNJX8zz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1x3bQfR7tRhe9biB0diEmKGCGXWIl1YBxjsxV8caMYvw/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OyuxDpD1g0I6T76jWGprDSjlzqybndd6/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -408,11 +417,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -424,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -560,7 +569,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -576,22 +585,27 @@
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>28</v>
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -599,9 +613,29 @@
         <v>123557</v>
       </c>
     </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -615,9 +649,10 @@
     <hyperlink ref="A12" r:id="rId7" xr:uid="{6A916E01-F3CD-49DD-95F7-9FC5DE769C3B}"/>
     <hyperlink ref="A16" r:id="rId8" xr:uid="{D30C87DF-C772-4204-A0AA-3D1310FBAC17}"/>
     <hyperlink ref="A13" r:id="rId9" xr:uid="{B6D69DD3-1C93-4917-9591-877DCD6D6F73}"/>
-    <hyperlink ref="A31" r:id="rId10" xr:uid="{15C0DF35-FD29-43AB-A70E-738B4765BC56}"/>
-    <hyperlink ref="A30" r:id="rId11" xr:uid="{06396CAE-1229-495F-AE54-868061BDCF62}"/>
-    <hyperlink ref="A32" r:id="rId12" xr:uid="{47A6F3E2-FFE3-40F1-9C2B-0F18DB72F466}"/>
+    <hyperlink ref="A30" r:id="rId10" xr:uid="{06396CAE-1229-495F-AE54-868061BDCF62}"/>
+    <hyperlink ref="A32" r:id="rId11" xr:uid="{47A6F3E2-FFE3-40F1-9C2B-0F18DB72F466}"/>
+    <hyperlink ref="A27" r:id="rId12" xr:uid="{3AB61698-7A40-44C5-AB47-579E69DA3872}"/>
+    <hyperlink ref="A33" r:id="rId13" xr:uid="{E4CD36FE-2EBD-4D44-826B-BA009D86D475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
